--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="356">
   <si>
     <t>SN</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Postdoctoral Research Fellow in permafrost biogeochemistry</t>
   </si>
   <si>
-    <t>Spesialrådgiver for e-infrastruktur</t>
-  </si>
-  <si>
     <t>Vitenskapelig assistent – Russland, Eurasia og Arktis</t>
   </si>
   <si>
@@ -58,6 +55,12 @@
     <t>Research fellow</t>
   </si>
   <si>
+    <t>PhD position at the Department of Art and Media Studies</t>
+  </si>
+  <si>
+    <t>PhD position in applied mathematics/statistics</t>
+  </si>
+  <si>
     <t>Postdoc position in Food Chemistry</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>PhD position in “hydrogen assisted fatigue crack growth simulation” IVT-77/16</t>
   </si>
   <si>
+    <t>Researcher (20 %, temporary)</t>
+  </si>
+  <si>
     <t>Postdoctoral fellow within applied and computational mathematics/statistics</t>
   </si>
   <si>
@@ -148,9 +154,6 @@
     <t>4-årig midlertidig stilling som stipendiat ved Institutt for filosofi og religionsvitenskap</t>
   </si>
   <si>
-    <t>Stipendiatstilling innen trening som medisin</t>
-  </si>
-  <si>
     <t>Postdoktor og doktorgradsstipendiat innen kvalitet og sikkerhet i helsesystemer</t>
   </si>
   <si>
@@ -208,9 +211,6 @@
     <t>PhD position in Religious Studies at The Department of History and Religious Studies - Campus Tromsø</t>
   </si>
   <si>
-    <t>PhD Candidate affiliated to a research procject on information literacy teaching at the Department of Library Services - Campus Tromsø</t>
-  </si>
-  <si>
     <t>Temporary laboratory engineer position(25%) at the Norwegian Colour and Visual Computing Laboratory</t>
   </si>
   <si>
@@ -229,12 +229,6 @@
     <t>PhD Candidate in Applied Computational Chemistry (Catalysis) at The Department of Chemistry</t>
   </si>
   <si>
-    <t>Førsteamanuensis i organisasjon og ledelse ved Institutt for sosiologi, statsvitenskap og samfunnsplanlegging - campus Tromsø</t>
-  </si>
-  <si>
-    <t>Førsteamanuensis /førstelektor/universitetslektor i sosialt arbeid - campus Alta</t>
-  </si>
-  <si>
     <t>PhD position - Sustainable land use: representation and improvements in environmental assessments (IVT - 71/16)</t>
   </si>
   <si>
@@ -304,9 +298,6 @@
     <t>Research fellow in reservoir technology</t>
   </si>
   <si>
-    <t>Førsteamanuensis i sosialt arbeid</t>
-  </si>
-  <si>
     <t>Førsteamanuensis i farmasi</t>
   </si>
   <si>
@@ -352,6 +343,12 @@
     <t>Postdoctoral fellow in Mathematics</t>
   </si>
   <si>
+    <t>Postdoctoral fellow within bioinformatics – ref.no 16/02526</t>
+  </si>
+  <si>
+    <t>Overingeniør innen verkstedteknikk – ref.nr 16/02446</t>
+  </si>
+  <si>
     <t>Professor in Animal Nutrition – Ref.no 16/02249</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
     <t>2 Agronomer (Ingeniører i husdyrstell) - fast og midlertidig – ref.nr 16/01668</t>
   </si>
   <si>
+    <t>PhD Research Fellowship in Philosophical Logic</t>
+  </si>
+  <si>
     <t>Overingeniør i mikroskopi – ref.nr 16/02233</t>
   </si>
   <si>
@@ -415,15 +415,9 @@
     <t>Personalkonsulent</t>
   </si>
   <si>
-    <t>Ledig stilling som 1087 overingeniør</t>
-  </si>
-  <si>
     <t>Overingeniør</t>
   </si>
   <si>
-    <t>Målefysikere (2 stillinger)</t>
-  </si>
-  <si>
     <t>Chief engineer at the Geophysical Institute</t>
   </si>
   <si>
@@ -484,9 +478,6 @@
     <t>Uni Research</t>
   </si>
   <si>
-    <t>UNINETT Sigma2</t>
-  </si>
-  <si>
     <t>Norwegian Institute of International Affairs</t>
   </si>
   <si>
@@ -532,24 +523,18 @@
     <t>Forsvarets Høgskole</t>
   </si>
   <si>
-    <t>Institute of Marine Research</t>
-  </si>
-  <si>
-    <t>Justervesenet</t>
-  </si>
-  <si>
     <t>Oslo</t>
   </si>
   <si>
     <t>Bergen</t>
   </si>
   <si>
+    <t>Stavanger</t>
+  </si>
+  <si>
     <t>Trondheim</t>
   </si>
   <si>
-    <t>Stavanger</t>
-  </si>
-  <si>
     <t>Tromsø</t>
   </si>
   <si>
@@ -568,9 +553,6 @@
     <t>Halden</t>
   </si>
   <si>
-    <t>Alta</t>
-  </si>
-  <si>
     <t>Namsos</t>
   </si>
   <si>
@@ -580,9 +562,6 @@
     <t>Lillehammer</t>
   </si>
   <si>
-    <t>Skedsmo</t>
-  </si>
-  <si>
     <t>6/25/2016</t>
   </si>
   <si>
@@ -595,9 +574,6 @@
     <t>6/1/2016</t>
   </si>
   <si>
-    <t>5/18/2016</t>
-  </si>
-  <si>
     <t>5/20/2016</t>
   </si>
   <si>
@@ -607,6 +583,12 @@
     <t>8/15/2016</t>
   </si>
   <si>
+    <t>7/20/2016</t>
+  </si>
+  <si>
+    <t>6/12/2016</t>
+  </si>
+  <si>
     <t>6/10/2016</t>
   </si>
   <si>
@@ -619,9 +601,6 @@
     <t>5/25/2016</t>
   </si>
   <si>
-    <t>6/12/2016</t>
-  </si>
-  <si>
     <t>6/2/2016</t>
   </si>
   <si>
@@ -655,12 +634,12 @@
     <t>5/19/2016</t>
   </si>
   <si>
+    <t>6/19/2016</t>
+  </si>
+  <si>
     <t>8/1/2016</t>
   </si>
   <si>
-    <t>6/19/2016</t>
-  </si>
-  <si>
     <t>9/1/2016</t>
   </si>
   <si>
@@ -676,9 +655,6 @@
     <t>https://www.jobbnorge.no//en/available-jobs/job/125493/postdoctoral-research-fellow-in-permafrost-biogeochemistry</t>
   </si>
   <si>
-    <t>https://www.jobbnorge.no//en/available-jobs/job/125414/spesialraadgiver-for-e-infrastruktur</t>
-  </si>
-  <si>
     <t>https://www.jobbnorge.no//en/available-jobs/job/125397/vitenskapelig-assistent-russland-eurasia-og-arktis</t>
   </si>
   <si>
@@ -688,6 +664,12 @@
     <t>https://www.jobbnorge.no//en/available-jobs/job/124430/research-fellow</t>
   </si>
   <si>
+    <t>https://www.jobbnorge.no//en/available-jobs/job/125998/phd-position-at-the-department-of-art-and-media-studies</t>
+  </si>
+  <si>
+    <t>https://www.jobbnorge.no//en/available-jobs/job/125936/phd-position-in-applied-mathematics-statistics</t>
+  </si>
+  <si>
     <t>https://www.jobbnorge.no//en/available-jobs/job/125895/postdoc-position-in-food-chemistry</t>
   </si>
   <si>
@@ -715,6 +697,9 @@
     <t>https://www.jobbnorge.no//en/available-jobs/job/125810/phd-position-in-hydrogen-assisted-fatigue-crack-growth-simulation-ivt-77-16</t>
   </si>
   <si>
+    <t>https://www.jobbnorge.no//en/available-jobs/job/125795/researcher-20-temporary</t>
+  </si>
+  <si>
     <t>https://www.jobbnorge.no//en/available-jobs/job/125779/postdoctoral-fellow-within-applied-and-computational-mathematics-statistics</t>
   </si>
   <si>
@@ -781,9 +766,6 @@
     <t>https://www.jobbnorge.no//en/available-jobs/job/125444/4-aarig-midlertidig-stilling-som-stipendiat-ved-institutt-for-filosofi-og-religionsvitenskap</t>
   </si>
   <si>
-    <t>https://www.jobbnorge.no//en/available-jobs/job/125429/stipendiatstilling-innen-trening-som-medisin</t>
-  </si>
-  <si>
     <t>https://www.jobbnorge.no//en/available-jobs/job/125422/postdoktor-og-doktorgradsstipendiat-innen-kvalitet-og-sikkerhet-i-helsesystemer</t>
   </si>
   <si>
@@ -844,9 +826,6 @@
     <t>https://www.jobbnorge.no//en/available-jobs/job/125151/phd-position-in-religious-studies-at-the-department-of-history-and-religious-studies-campus-tromsoe</t>
   </si>
   <si>
-    <t>https://www.jobbnorge.no//en/available-jobs/job/125147/phd-candidate-affiliated-to-a-research-procject-on-information-literacy-teaching-at-the-department-of-library-services-campus-tromsoe</t>
-  </si>
-  <si>
     <t>https://www.jobbnorge.no//en/available-jobs/job/125141/temporary-laboratory-engineer-position25-at-the-norwegian-colour-and-visual-computing-laboratory</t>
   </si>
   <si>
@@ -865,12 +844,6 @@
     <t>https://www.jobbnorge.no//en/available-jobs/job/125090/phd-candidate-in-applied-computational-chemistry-catalysis-at-the-department-of-chemistry</t>
   </si>
   <si>
-    <t>https://www.jobbnorge.no//en/available-jobs/job/125087/foersteamanuensis-i-organisasjon-og-ledelse-ved-institutt-for-sosiologi-statsvitenskap-og-samfunnsplanlegging-campus-tromsoe</t>
-  </si>
-  <si>
-    <t>https://www.jobbnorge.no//en/available-jobs/job/125083/foersteamanuensis-foerstelektor-universitetslektor-i-sosialt-arbeid-campus-alta</t>
-  </si>
-  <si>
     <t>https://www.jobbnorge.no//en/available-jobs/job/125069/phd-position-sustainable-land-use-representation-and-improvements-in-environmental-assessments-ivt-71-16</t>
   </si>
   <si>
@@ -940,9 +913,6 @@
     <t>https://www.jobbnorge.no//en/available-jobs/job/124189/research-fellow-in-reservoir-technology</t>
   </si>
   <si>
-    <t>https://www.jobbnorge.no//en/available-jobs/job/124181/foersteamanuensis-i-sosialt-arbeid</t>
-  </si>
-  <si>
     <t>https://www.jobbnorge.no//en/available-jobs/job/124174/foersteamanuensis-i-farmasi</t>
   </si>
   <si>
@@ -988,6 +958,12 @@
     <t>https://www.jobbnorge.no//en/available-jobs/job/121576/postdoctoral-fellow-in-mathematics</t>
   </si>
   <si>
+    <t>https://www.jobbnorge.no//en/available-jobs/job/125974/postdoctoral-fellow-within-bioinformatics-refno-16-02526</t>
+  </si>
+  <si>
+    <t>https://www.jobbnorge.no//en/available-jobs/job/125948/overingenioer-innen-verkstedteknikk-refnr-16-02446</t>
+  </si>
+  <si>
     <t>https://www.jobbnorge.no//en/available-jobs/job/125832/professor-in-animal-nutrition-refno-16-02249</t>
   </si>
   <si>
@@ -1012,6 +988,9 @@
     <t>https://www.jobbnorge.no//en/available-jobs/job/125753/2-agronomer-ingenioerer-i-husdyrstell-fast-og-midlertidig-refnr-16-01668</t>
   </si>
   <si>
+    <t>https://www.jobbnorge.no//en/available-jobs/job/125710/phd-research-fellowship-in-philosophical-logic</t>
+  </si>
+  <si>
     <t>https://www.jobbnorge.no//en/available-jobs/job/125685/overingenioer-i-mikroskopi-refnr-16-02233</t>
   </si>
   <si>
@@ -1051,13 +1030,7 @@
     <t>https://www.jobbnorge.no//en/available-jobs/job/125435/personalkonsulent</t>
   </si>
   <si>
-    <t>https://www.jobbnorge.no//en/available-jobs/job/125419/ledig-stilling-som-1087-overingenioer</t>
-  </si>
-  <si>
     <t>https://www.jobbnorge.no//en/available-jobs/job/125407/overingenioer</t>
-  </si>
-  <si>
-    <t>https://www.jobbnorge.no//en/available-jobs/job/125287/maalefysikere-2-stillinger</t>
   </si>
   <si>
     <t>https://www.jobbnorge.no//en/available-jobs/job/125245/chief-engineer-at-the-geophysical-institute</t>
@@ -1475,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,16 +1482,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1529,16 +1502,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1549,16 +1522,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1569,16 +1542,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1589,16 +1562,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1609,16 +1582,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1629,16 +1602,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1649,16 +1622,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1669,16 +1642,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1689,16 +1662,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1709,16 +1682,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1729,16 +1702,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1749,16 +1722,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1769,16 +1742,16 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1789,16 +1762,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1809,16 +1782,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1829,16 +1802,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1849,16 +1822,16 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1869,16 +1842,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1889,16 +1862,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1909,16 +1882,16 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1929,16 +1902,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1949,16 +1922,16 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1966,19 +1939,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1986,19 +1959,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2009,16 +1982,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2029,16 +2002,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2049,16 +2022,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2069,16 +2042,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2092,13 +2065,13 @@
         <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2109,16 +2082,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2129,16 +2102,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2152,13 +2125,13 @@
         <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2169,16 +2142,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2189,16 +2162,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2209,16 +2182,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2229,16 +2202,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2249,16 +2222,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E39" t="s">
         <v>194</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2269,16 +2242,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2289,16 +2262,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2309,16 +2282,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2329,16 +2302,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2349,16 +2322,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2366,19 +2339,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2389,16 +2362,16 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2409,16 +2382,16 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2429,16 +2402,16 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2449,16 +2422,16 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2469,16 +2442,16 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2489,16 +2462,16 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D51" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2509,16 +2482,16 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2529,16 +2502,16 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2549,16 +2522,16 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2569,16 +2542,16 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E55" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2589,16 +2562,16 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E56" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2609,16 +2582,16 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2629,16 +2602,16 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D58" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2649,16 +2622,16 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D59" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2669,16 +2642,16 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2692,13 +2665,13 @@
         <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E61" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2709,16 +2682,16 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E62" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2729,16 +2702,16 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2749,16 +2722,16 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2769,16 +2742,16 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E65" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2789,16 +2762,16 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E66" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2809,16 +2782,16 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E67" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2829,16 +2802,16 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E68" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2849,16 +2822,16 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D69" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2869,16 +2842,16 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" t="s">
         <v>184</v>
       </c>
-      <c r="E70" t="s">
-        <v>193</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2889,16 +2862,16 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E71" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2909,16 +2882,16 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2929,16 +2902,16 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2949,16 +2922,16 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2969,16 +2942,16 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D75" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E75" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2989,16 +2962,16 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3009,16 +2982,16 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3029,16 +3002,16 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E78" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3049,16 +3022,16 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E79" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3069,16 +3042,16 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E80" t="s">
         <v>199</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3089,16 +3062,16 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E81" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3109,16 +3082,16 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E82" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3129,16 +3102,16 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E83" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3149,16 +3122,16 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E84" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3169,16 +3142,16 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D85" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E85" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3189,16 +3162,16 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D86" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E86" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3209,16 +3182,16 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D87" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E87" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3229,16 +3202,16 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D88" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3249,16 +3222,16 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E89" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3269,16 +3242,16 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D90" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E90" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3289,16 +3262,16 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D91" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E91" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3309,16 +3282,16 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D92" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E92" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3329,16 +3302,16 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D93" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E93" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3349,16 +3322,16 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E94" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3369,16 +3342,16 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E95" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3389,16 +3362,16 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D96" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E96" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3409,16 +3382,16 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3429,16 +3402,16 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D98" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E98" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3449,16 +3422,16 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E99" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3469,16 +3442,16 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3489,16 +3462,16 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D101" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E101" t="s">
         <v>195</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3509,16 +3482,16 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D102" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E102" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3529,16 +3502,16 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E103" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3549,16 +3522,16 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D104" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E104" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3569,16 +3542,16 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D105" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E105" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3589,16 +3562,16 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D106" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3609,16 +3582,16 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E107" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3629,16 +3602,16 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E108" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3649,16 +3622,16 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E109" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3669,16 +3642,16 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D110" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E110" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3689,16 +3662,16 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D111" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E111" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3709,16 +3682,16 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E112" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3729,16 +3702,16 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D113" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E113" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3749,16 +3722,16 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D114" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E114" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3769,16 +3742,16 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D115" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E115" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3789,16 +3762,16 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D116" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E116" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3809,16 +3782,16 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D117" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E117" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3829,16 +3802,16 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D118" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E118" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3849,16 +3822,16 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D119" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E119" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3869,16 +3842,16 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E120" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3889,16 +3862,16 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D121" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E121" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3909,16 +3882,16 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D122" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E122" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3929,16 +3902,16 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D123" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E123" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3949,16 +3922,16 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D124" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E124" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3969,16 +3942,16 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D125" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E125" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3989,16 +3962,16 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D126" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E126" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4009,16 +3982,16 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D127" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E127" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4029,16 +4002,16 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D128" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E128" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4049,16 +4022,16 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D129" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E129" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4069,16 +4042,16 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D130" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4089,16 +4062,16 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D131" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E131" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4109,16 +4082,16 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D132" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E132" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4129,16 +4102,16 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D133" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E133" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4149,16 +4122,16 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D134" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E134" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4169,16 +4142,16 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E135" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4189,16 +4162,16 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D136" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E136" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4209,16 +4182,16 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D137" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E137" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4229,16 +4202,16 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D138" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E138" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4249,16 +4222,16 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E139" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4269,16 +4242,16 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D140" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E140" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4289,16 +4262,16 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D141" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E141" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4309,16 +4282,16 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D142" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E142" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4329,16 +4302,16 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D143" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E143" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4349,16 +4322,16 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D144" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E144" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4369,16 +4342,16 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D145" t="s">
         <v>174</v>
       </c>
       <c r="E145" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4389,16 +4362,16 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E146" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4409,16 +4382,16 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D147" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E147" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4426,59 +4399,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D148" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E148" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>151</v>
-      </c>
-      <c r="C149" t="s">
-        <v>153</v>
-      </c>
-      <c r="D149" t="s">
-        <v>175</v>
-      </c>
-      <c r="E149" t="s">
-        <v>215</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>151</v>
-      </c>
-      <c r="C150" t="s">
-        <v>153</v>
-      </c>
-      <c r="D150" t="s">
-        <v>175</v>
-      </c>
-      <c r="E150" t="s">
-        <v>215</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4630,8 +4563,6 @@
     <hyperlink ref="F146" r:id="rId145"/>
     <hyperlink ref="F147" r:id="rId146"/>
     <hyperlink ref="F148" r:id="rId147"/>
-    <hyperlink ref="F149" r:id="rId148"/>
-    <hyperlink ref="F150" r:id="rId149"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
